--- a/DATA_goal/Junction_Flooding_398.xlsx
+++ b/DATA_goal/Junction_Flooding_398.xlsx
@@ -446,28 +446,28 @@
     <col width="6" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
     <col width="6" customWidth="1" min="11" max="11"/>
     <col width="6" customWidth="1" min="12" max="12"/>
     <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
     <col width="6" customWidth="1" min="23" max="23"/>
     <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
     <col width="6" customWidth="1" min="29" max="29"/>
@@ -655,52 +655,52 @@
         <v>44784.17361111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.13</v>
+        <v>1.29</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.74</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.01</v>
+        <v>0.12</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.48</v>
+        <v>4.83</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0.14</v>
+        <v>1.42</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.1</v>
+        <v>0.98</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0.26</v>
+        <v>2.64</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.13</v>
+        <v>1.33</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.05</v>
+        <v>0.54</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.14</v>
+        <v>1.44</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.23</v>
+        <v>2.28</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.11</v>
+        <v>1.08</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.04</v>
+        <v>0.42</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.11</v>
+        <v>1.07</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.39</v>
+        <v>3.87</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.05</v>
+        <v>0.51</v>
       </c>
       <c r="R2" s="4" t="n">
         <v>0</v>
@@ -709,49 +709,49 @@
         <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>1.44</v>
+        <v>14.39</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0.37</v>
+        <v>3.71</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.21</v>
+        <v>2.12</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0.16</v>
+        <v>1.55</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.16</v>
+        <v>1.64</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.18</v>
+        <v>1.82</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0.23</v>
+        <v>2.31</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.1</v>
+        <v>0.97</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.72</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.16</v>
+        <v>1.59</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.14</v>
+        <v>1.43</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.21</v>
+        <v>2.09</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.28</v>
+        <v>2.77</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.02</v>
+        <v>0.19</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.24</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44784.18055555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.93</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.87</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.04</v>
+        <v>0.39</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>2.11</v>
+        <v>21.06</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.63</v>
+        <v>16.31</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.74</v>
+        <v>7.41</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>2.3</v>
+        <v>23.04</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.12</v>
+        <v>11.23</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.5</v>
+        <v>5.05</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.78</v>
+        <v>7.84</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.88</v>
+        <v>8.75</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.86</v>
+        <v>8.58</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.24</v>
+        <v>2.4</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.73</v>
+        <v>7.26</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.15</v>
+        <v>11.49</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.58</v>
+        <v>5.8</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.01</v>
+        <v>0.09</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>10.67</v>
+        <v>106.67</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>2.08</v>
+        <v>20.76</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.73</v>
+        <v>7.29</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.37</v>
+        <v>13.7</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.77</v>
+        <v>7.71</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.17</v>
+        <v>1.72</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.24</v>
+        <v>12.39</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.61</v>
+        <v>6.08</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.52</v>
+        <v>5.24</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.66</v>
+        <v>6.58</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.88</v>
+        <v>8.76</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.08</v>
+        <v>0.82</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>2.09</v>
+        <v>20.88</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.36</v>
+        <v>3.63</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.9</v>
+        <v>9.02</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44784.1875</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.36</v>
+        <v>3.62</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.27</v>
+        <v>2.66</v>
       </c>
       <c r="D4" s="4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>8.43</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>6.27</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>13.81</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="R4" s="4" t="n">
         <v>0.02</v>
-      </c>
-      <c r="E4" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="F4" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="G4" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0</v>
       </c>
       <c r="S4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>3.82</v>
+        <v>38.23</v>
       </c>
       <c r="U4" s="4" t="n">
+        <v>8.58</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="Y4" s="4" t="n">
         <v>0.86</v>
       </c>
-      <c r="V4" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>0.09</v>
-      </c>
       <c r="Z4" s="4" t="n">
-        <v>0.7</v>
+        <v>7.01</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.24</v>
+        <v>2.43</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.21</v>
+        <v>2.05</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.27</v>
+        <v>2.71</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.35</v>
+        <v>3.51</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.51</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>1.31</v>
+        <v>13.15</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.14</v>
+        <v>1.36</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.37</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44784.19444444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.51</v>
+        <v>5.12</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.38</v>
+        <v>3.8</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.24</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>1.15</v>
+        <v>11.54</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0.9</v>
+        <v>9.02</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.41</v>
+        <v>4.12</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>1.59</v>
+        <v>15.88</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.62</v>
+        <v>6.22</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.28</v>
+        <v>2.82</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.43</v>
+        <v>4.32</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.48</v>
+        <v>4.84</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.47</v>
+        <v>4.72</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.13</v>
+        <v>1.33</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.4</v>
+        <v>3.99</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.63</v>
+        <v>6.26</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.32</v>
+        <v>3.18</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>5.54</v>
+        <v>55.41</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>1.15</v>
+        <v>11.51</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.4</v>
+        <v>3.99</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>0.76</v>
+        <v>7.62</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.43</v>
+        <v>4.25</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.89</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>0.79</v>
+        <v>7.89</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.34</v>
+        <v>3.36</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.29</v>
+        <v>2.88</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.36</v>
+        <v>3.63</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.48</v>
+        <v>4.84</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.37</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>1.45</v>
+        <v>14.55</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.2</v>
+        <v>2.01</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.49</v>
+        <v>4.94</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_398.xlsx
+++ b/DATA_goal/Junction_Flooding_398.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44784.17361111111</v>
+        <v>45079.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.29</v>
+        <v>24.021</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.74</v>
+        <v>16.687</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.12</v>
+        <v>4.255</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>4.83</v>
+        <v>50.696</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1.42</v>
+        <v>41.946</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.98</v>
+        <v>18.904</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>2.64</v>
+        <v>63.181</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.33</v>
+        <v>29.086</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.54</v>
+        <v>12.432</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.44</v>
+        <v>19.179</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>2.28</v>
+        <v>19.925</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.08</v>
+        <v>20.923</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.42</v>
+        <v>6.036</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.07</v>
+        <v>18.798</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>3.87</v>
+        <v>26.508</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.51</v>
+        <v>15.598</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0</v>
+        <v>3.832</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0</v>
+        <v>2.606</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>14.39</v>
+        <v>278.79</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>3.71</v>
+        <v>52.368</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>2.12</v>
+        <v>17.351</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.55</v>
+        <v>34.892</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.64</v>
+        <v>18.126</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>1.82</v>
+        <v>2.393</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>2.31</v>
+        <v>31.289</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.97</v>
+        <v>15.326</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.72</v>
+        <v>13.706</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.59</v>
+        <v>16.029</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.43</v>
+        <v>20.711</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.09</v>
+        <v>3.641</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.77</v>
+        <v>55.941</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.19</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>2.45</v>
+        <v>21.693</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44784.18055555555</v>
+        <v>45079.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>9.279999999999999</v>
+        <v>13.932</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>6.87</v>
+        <v>9.795</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.39</v>
+        <v>1.732</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>21.06</v>
+        <v>29.697</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>16.31</v>
+        <v>24.609</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>7.41</v>
+        <v>10.964</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>23.04</v>
+        <v>44.715</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>11.23</v>
+        <v>16.87</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>5.05</v>
+        <v>7.275</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>7.84</v>
+        <v>11.086</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>8.75</v>
+        <v>11.799</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>8.58</v>
+        <v>12.414</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>2.4</v>
+        <v>3.504</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>7.26</v>
+        <v>10.903</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>11.49</v>
+        <v>15.39</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>5.8</v>
+        <v>9.298</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.09</v>
+        <v>1.617</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.08</v>
+        <v>0.993</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>106.67</v>
+        <v>158.644</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>20.76</v>
+        <v>30.579</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>7.29</v>
+        <v>10.064</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>13.7</v>
+        <v>20.303</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>7.71</v>
+        <v>10.823</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.72</v>
+        <v>1.365</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>12.39</v>
+        <v>21.107</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>6.08</v>
+        <v>8.888999999999999</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>5.24</v>
+        <v>8.048999999999999</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>6.58</v>
+        <v>9.416</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>8.76</v>
+        <v>12.357</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.82</v>
+        <v>1.294</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>20.88</v>
+        <v>40.443</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>3.63</v>
+        <v>5.6</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>9.02</v>
+        <v>12.582</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44784.1875</v>
+        <v>45079.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>3.62</v>
+        <v>14.413</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>2.66</v>
+        <v>10.382</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.2</v>
+        <v>1.256</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>8.43</v>
+        <v>30.955</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>6.27</v>
+        <v>25.646</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>2.95</v>
+        <v>11.342</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>13.81</v>
+        <v>44.606</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>4.4</v>
+        <v>17.452</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>2.05</v>
+        <v>7.632</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>3.15</v>
+        <v>11.53</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>3.63</v>
+        <v>12.377</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>3.34</v>
+        <v>13.03</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.97</v>
+        <v>3.623</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>2.82</v>
+        <v>11.279</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>4.86</v>
+        <v>15.97</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>2.18</v>
+        <v>9.590999999999999</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.02</v>
+        <v>1.073</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0</v>
+        <v>0.752</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>38.23</v>
+        <v>164.352</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>8.58</v>
+        <v>31.55</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>3</v>
+        <v>10.411</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>5.63</v>
+        <v>21.061</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>3.22</v>
+        <v>11.261</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.86</v>
+        <v>1.42</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>7.01</v>
+        <v>21.276</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>2.43</v>
+        <v>9.196</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>2.05</v>
+        <v>8.253</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>2.71</v>
+        <v>9.676</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>3.51</v>
+        <v>13.005</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.51</v>
+        <v>0.784</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>13.15</v>
+        <v>40.218</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>1.36</v>
+        <v>5.823</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>3.7</v>
+        <v>13.016</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44784.19444444445</v>
+        <v>45079.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>5.12</v>
+        <v>14.41</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>3.8</v>
+        <v>10.49</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.24</v>
+        <v>1.04</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>11.54</v>
+        <v>31.05</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>9.02</v>
+        <v>25.72</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>4.12</v>
+        <v>11.34</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>15.88</v>
+        <v>44.57</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>6.22</v>
+        <v>17.45</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>2.82</v>
+        <v>7.69</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>4.32</v>
+        <v>11.56</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>4.84</v>
+        <v>12.45</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>4.72</v>
+        <v>13.11</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.33</v>
+        <v>3.62</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>3.99</v>
+        <v>11.28</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>6.26</v>
+        <v>16.01</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>3.18</v>
+        <v>9.56</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.82</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.65</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>55.41</v>
+        <v>164.35</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>11.51</v>
+        <v>31.55</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>3.99</v>
+        <v>10.41</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>7.62</v>
+        <v>21.13</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>4.25</v>
+        <v>11.28</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.89</v>
+        <v>1.42</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>7.89</v>
+        <v>21.37</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>3.36</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>2.88</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>3.63</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>4.84</v>
+        <v>13.09</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.37</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>14.55</v>
+        <v>40.27</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>2.01</v>
+        <v>5.84</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>4.94</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44784.20137731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>3.71</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>8.390000000000001</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>6.52</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>12.73</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>3.54</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>2.89</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>38.31</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>8.470000000000001</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>5.62</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>3.13</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>6.27</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>11.79</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>3.61</v>
+        <v>13.02</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_398.xlsx
+++ b/DATA_goal/Junction_Flooding_398.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="8" customWidth="1" min="10" max="10"/>
-    <col width="8" customWidth="1" min="11" max="11"/>
-    <col width="8" customWidth="1" min="12" max="12"/>
-    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="8" customWidth="1" min="27" max="27"/>
-    <col width="8" customWidth="1" min="28" max="28"/>
-    <col width="8" customWidth="1" min="29" max="29"/>
-    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="8" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,418 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45079.50694444445</v>
+        <v>44784.17361111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>24.021</v>
+        <v>1.29</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>16.687</v>
+        <v>0.735</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.255</v>
+        <v>0.124</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>50.696</v>
+        <v>4.827</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>41.946</v>
+        <v>1.423</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>18.904</v>
+        <v>0.979</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>63.181</v>
+        <v>2.643</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>29.086</v>
+        <v>1.329</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>12.432</v>
+        <v>0.541</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>19.179</v>
+        <v>1.443</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>19.925</v>
+        <v>2.279</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>20.923</v>
+        <v>1.076</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>6.036</v>
+        <v>0.423</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>18.798</v>
+        <v>1.072</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>26.508</v>
+        <v>3.872</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>15.598</v>
+        <v>0.514</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.832</v>
+        <v>0</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.606</v>
+        <v>0.001</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>278.79</v>
+        <v>14.386</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>52.368</v>
+        <v>3.712</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>17.351</v>
+        <v>2.121</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>34.892</v>
+        <v>1.552</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>18.126</v>
+        <v>1.645</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.393</v>
+        <v>1.823</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>31.289</v>
+        <v>2.314</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>15.326</v>
+        <v>0.973</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>13.706</v>
+        <v>0.721</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>16.029</v>
+        <v>1.589</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>20.711</v>
+        <v>1.435</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.641</v>
+        <v>2.091</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>55.941</v>
+        <v>2.771</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>9.720000000000001</v>
+        <v>0.187</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>21.693</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45079.51388888889</v>
+        <v>44784.18055555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>13.932</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>9.795</v>
+        <v>6.875</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.732</v>
+        <v>0.395</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>29.697</v>
+        <v>21.058</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>24.609</v>
+        <v>16.307</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>10.964</v>
+        <v>7.406</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>44.715</v>
+        <v>23.042</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>16.87</v>
+        <v>11.228</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>7.275</v>
+        <v>5.046</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>11.086</v>
+        <v>7.842</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>11.799</v>
+        <v>8.750999999999999</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>12.414</v>
+        <v>8.581</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>3.504</v>
+        <v>2.405</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>10.903</v>
+        <v>7.256</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>15.39</v>
+        <v>11.492</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>9.298</v>
+        <v>5.805</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.617</v>
+        <v>0.094</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.993</v>
+        <v>0.077</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>158.644</v>
+        <v>106.668</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>30.579</v>
+        <v>20.764</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>10.064</v>
+        <v>7.288</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>20.303</v>
+        <v>13.703</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>10.823</v>
+        <v>7.714</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.365</v>
+        <v>1.716</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>21.107</v>
+        <v>12.392</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>8.888999999999999</v>
+        <v>6.078</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>8.048999999999999</v>
+        <v>5.237</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>9.416</v>
+        <v>6.577</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>12.357</v>
+        <v>8.763</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.294</v>
+        <v>0.8169999999999999</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>40.443</v>
+        <v>20.877</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>5.6</v>
+        <v>3.633</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>12.582</v>
+        <v>9.023999999999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45079.52083333334</v>
+        <v>44784.1875</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>14.413</v>
+        <v>3.623</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>10.382</v>
+        <v>2.661</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.256</v>
+        <v>0.199</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>30.955</v>
+        <v>8.430999999999999</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>25.646</v>
+        <v>6.265</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>11.342</v>
+        <v>2.951</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>44.606</v>
+        <v>13.807</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>17.452</v>
+        <v>4.401</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>7.632</v>
+        <v>2.054</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>11.53</v>
+        <v>3.152</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>12.377</v>
+        <v>3.629</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>13.03</v>
+        <v>3.337</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>3.623</v>
+        <v>0.971</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>11.279</v>
+        <v>2.819</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>15.97</v>
+        <v>4.86</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>9.590999999999999</v>
+        <v>2.181</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1.073</v>
+        <v>0.025</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.752</v>
+        <v>0</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>164.352</v>
+        <v>38.233</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>31.55</v>
+        <v>8.577</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>10.411</v>
+        <v>3.004</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>21.061</v>
+        <v>5.631</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>11.261</v>
+        <v>3.219</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.42</v>
+        <v>0.865</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>21.276</v>
+        <v>7.006</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>9.196</v>
+        <v>2.43</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>8.253</v>
+        <v>2.054</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>9.676</v>
+        <v>2.715</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>13.005</v>
+        <v>3.506</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.784</v>
+        <v>0.505</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>40.218</v>
+        <v>13.148</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>5.823</v>
+        <v>1.364</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>13.016</v>
+        <v>3.701</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45079.52777777778</v>
+        <v>44784.19444444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>14.41</v>
+        <v>5.119</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>10.49</v>
+        <v>3.802</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.04</v>
+        <v>0.242</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>31.05</v>
+        <v>11.536</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>25.72</v>
+        <v>9.019</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>11.34</v>
+        <v>4.115</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>44.57</v>
+        <v>15.88</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>17.45</v>
+        <v>6.216</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>7.69</v>
+        <v>2.816</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>11.56</v>
+        <v>4.315</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>12.45</v>
+        <v>4.835</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>13.11</v>
+        <v>4.723</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.62</v>
+        <v>1.326</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>11.28</v>
+        <v>3.989</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>16.01</v>
+        <v>6.263</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>9.56</v>
+        <v>3.178</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.82</v>
+        <v>0.044</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.65</v>
+        <v>0.05</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>164.35</v>
+        <v>55.412</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>31.55</v>
+        <v>11.513</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>10.41</v>
+        <v>3.986</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>21.13</v>
+        <v>7.618</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>11.28</v>
+        <v>4.254</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.42</v>
+        <v>0.889</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>21.37</v>
+        <v>7.885</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>9.199999999999999</v>
+        <v>3.36</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>8.210000000000001</v>
+        <v>2.876</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>9.640000000000001</v>
+        <v>3.625</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>13.09</v>
+        <v>4.839</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.366</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>40.27</v>
+        <v>14.549</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>5.84</v>
+        <v>2.012</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>13.02</v>
+        <v>4.942</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44784.20137731481</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>8.390000000000001</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>6.52</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>12.73</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>38.31</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>8.470000000000001</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>6.27</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>11.79</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>3.61</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_398.xlsx
+++ b/DATA_goal/Junction_Flooding_398.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44784.17361111111</v>
+        <v>45079.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.29</v>
+        <v>24.021</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.735</v>
+        <v>16.687</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.124</v>
+        <v>4.255</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>4.827</v>
+        <v>50.696</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1.423</v>
+        <v>41.946</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.979</v>
+        <v>18.904</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>2.643</v>
+        <v>63.181</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.329</v>
+        <v>29.086</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.541</v>
+        <v>12.432</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.443</v>
+        <v>19.179</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>2.279</v>
+        <v>19.925</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.076</v>
+        <v>20.923</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.423</v>
+        <v>6.036</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.072</v>
+        <v>18.798</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>3.872</v>
+        <v>26.508</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.514</v>
+        <v>15.598</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0</v>
+        <v>3.832</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.001</v>
+        <v>2.606</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>14.386</v>
+        <v>278.79</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>3.712</v>
+        <v>52.368</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>2.121</v>
+        <v>17.351</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.552</v>
+        <v>34.892</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.645</v>
+        <v>18.126</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>1.823</v>
+        <v>2.393</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>2.314</v>
+        <v>31.289</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.973</v>
+        <v>15.326</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.721</v>
+        <v>13.706</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.589</v>
+        <v>16.029</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.435</v>
+        <v>20.711</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.091</v>
+        <v>3.641</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.771</v>
+        <v>55.941</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.187</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>2.45</v>
+        <v>21.693</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44784.18055555555</v>
+        <v>45079.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>9.279999999999999</v>
+        <v>13.932</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>6.875</v>
+        <v>9.795</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.395</v>
+        <v>1.732</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>21.058</v>
+        <v>29.697</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>16.307</v>
+        <v>24.609</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>7.406</v>
+        <v>10.964</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>23.042</v>
+        <v>44.715</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>11.228</v>
+        <v>16.87</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>5.046</v>
+        <v>7.275</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>7.842</v>
+        <v>11.086</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>8.750999999999999</v>
+        <v>11.799</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>8.581</v>
+        <v>12.414</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>2.405</v>
+        <v>3.504</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>7.256</v>
+        <v>10.903</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>11.492</v>
+        <v>15.39</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>5.805</v>
+        <v>9.298</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.094</v>
+        <v>1.617</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.077</v>
+        <v>0.993</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>106.668</v>
+        <v>158.644</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>20.764</v>
+        <v>30.579</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>7.288</v>
+        <v>10.064</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>13.703</v>
+        <v>20.303</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>7.714</v>
+        <v>10.823</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.716</v>
+        <v>1.365</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>12.392</v>
+        <v>21.107</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>6.078</v>
+        <v>8.888999999999999</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>5.237</v>
+        <v>8.048999999999999</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>6.577</v>
+        <v>9.416</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>8.763</v>
+        <v>12.357</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.8169999999999999</v>
+        <v>1.294</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>20.877</v>
+        <v>40.443</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>3.633</v>
+        <v>5.6</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>9.023999999999999</v>
+        <v>12.582</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44784.1875</v>
+        <v>45079.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
+        <v>14.413</v>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>10.382</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>1.256</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>30.955</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>25.646</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>11.342</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>44.606</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>17.452</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>7.632</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>12.377</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>13.03</v>
+      </c>
+      <c r="N4" s="4" t="n">
         <v>3.623</v>
       </c>
-      <c r="C4" s="4" t="n">
-        <v>2.661</v>
-      </c>
-      <c r="D4" s="4" t="n">
-        <v>0.199</v>
-      </c>
-      <c r="E4" s="4" t="n">
-        <v>8.430999999999999</v>
-      </c>
-      <c r="F4" s="4" t="n">
-        <v>6.265</v>
-      </c>
-      <c r="G4" s="4" t="n">
-        <v>2.951</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>13.807</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>4.401</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>2.054</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>3.152</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>3.629</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>3.337</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>0.971</v>
-      </c>
       <c r="O4" s="4" t="n">
-        <v>2.819</v>
+        <v>11.279</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>4.86</v>
+        <v>15.97</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>2.181</v>
+        <v>9.590999999999999</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.025</v>
+        <v>1.073</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0</v>
+        <v>0.752</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>38.233</v>
+        <v>164.352</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>8.577</v>
+        <v>31.55</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>3.004</v>
+        <v>10.411</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>5.631</v>
+        <v>21.061</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>3.219</v>
+        <v>11.261</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.865</v>
+        <v>1.42</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>7.006</v>
+        <v>21.276</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>2.43</v>
+        <v>9.196</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>2.054</v>
+        <v>8.253</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>2.715</v>
+        <v>9.676</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>3.506</v>
+        <v>13.005</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.505</v>
+        <v>0.784</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>13.148</v>
+        <v>40.218</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>1.364</v>
+        <v>5.823</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>3.701</v>
+        <v>13.016</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44784.19444444445</v>
+        <v>45079.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>5.119</v>
+        <v>14.41</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>3.802</v>
+        <v>10.49</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.242</v>
+        <v>1.04</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>11.536</v>
+        <v>31.05</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>9.019</v>
+        <v>25.72</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>4.115</v>
+        <v>11.34</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>15.88</v>
+        <v>44.57</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>6.216</v>
+        <v>17.45</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>2.816</v>
+        <v>7.69</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>4.315</v>
+        <v>11.56</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>4.835</v>
+        <v>12.45</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>4.723</v>
+        <v>13.11</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.326</v>
+        <v>3.62</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>3.989</v>
+        <v>11.28</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>6.263</v>
+        <v>16.01</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>3.178</v>
+        <v>9.56</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.044</v>
+        <v>0.82</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.65</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>55.412</v>
+        <v>164.35</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>11.513</v>
+        <v>31.55</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>3.986</v>
+        <v>10.41</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>7.618</v>
+        <v>21.13</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>4.254</v>
+        <v>11.28</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.889</v>
+        <v>1.42</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>7.885</v>
+        <v>21.37</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>3.36</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>2.876</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>3.625</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>4.839</v>
+        <v>13.09</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.366</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>14.549</v>
+        <v>40.27</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>2.012</v>
+        <v>5.84</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>4.942</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44784.20137731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>3.71</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>8.390000000000001</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>6.52</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>12.73</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>3.54</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>2.89</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>38.31</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>8.470000000000001</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>5.62</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>3.13</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>6.27</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>11.79</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>3.61</v>
+        <v>13.02</v>
       </c>
     </row>
   </sheetData>
